--- a/Datasets/Computer_questions.xlsx
+++ b/Datasets/Computer_questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\minor-project\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\minor-project\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88BCFB4-B8FB-437B-AC37-F694B3A86941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054BBBB5-9BB7-4992-A30D-12C1B68DD827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{46F1EF34-64CD-447D-BE6E-893189158114}"/>
   </bookViews>
@@ -34,581 +34,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="201">
   <si>
     <t>For what applications is the HTTP protocol used?</t>
   </si>
   <si>
-    <t>A. Increase upload speed</t>
-  </si>
-  <si>
-    <t>B. Develop a website</t>
-  </si>
-  <si>
-    <t>C. Used to deliver data on the World Wide Web</t>
-  </si>
-  <si>
-    <t>D. Used to download images and data</t>
-  </si>
-  <si>
     <t>What is the function of the Motherboard on the computer?</t>
   </si>
   <si>
-    <t>A. Scanner and other things are part of the motherboard.</t>
-  </si>
-  <si>
-    <t>B. A circuit board that connects all the external and internal hardware.</t>
-  </si>
-  <si>
-    <t>C. It is a type of file server.</t>
-  </si>
-  <si>
-    <t>D. Used for Typing on Screen.</t>
-  </si>
-  <si>
     <t>Storage device that uses lasers and lights as its technology of reading and writing information is known as</t>
   </si>
   <si>
-    <t>A. Magnetic storage</t>
-  </si>
-  <si>
-    <t>B. Optical storage</t>
-  </si>
-  <si>
-    <t>C. Cloud storage</t>
-  </si>
-  <si>
-    <t>D. Paper storage</t>
-  </si>
-  <si>
     <t>Trackball is which of the following devices?</t>
   </si>
   <si>
-    <t>A. Barcode reader</t>
-  </si>
-  <si>
-    <t>B. Touchpad</t>
-  </si>
-  <si>
-    <t>C. Output device</t>
-  </si>
-  <si>
-    <t>D. Input device</t>
-  </si>
-  <si>
-    <t>B. Advance Computing</t>
-  </si>
-  <si>
-    <t>C. Cloud Computing</t>
-  </si>
-  <si>
-    <t>D. Seed Computing</t>
-  </si>
-  <si>
-    <t>A. Ctrl+E</t>
-  </si>
-  <si>
-    <t>B. Ctrl+A</t>
-  </si>
-  <si>
-    <t>C. Ctrl+G</t>
-  </si>
-  <si>
-    <t>D. Ctrl+C</t>
-  </si>
-  <si>
     <t>Computers which offer information are called________ seek information are called______________</t>
   </si>
   <si>
-    <t>A. Clients, servers</t>
-  </si>
-  <si>
-    <t>B. Applications, complex softwares</t>
-  </si>
-  <si>
-    <t>C. System software, application software</t>
-  </si>
-  <si>
-    <t>D. Servers, clients</t>
-  </si>
-  <si>
     <t>The standard internet protocol is :</t>
   </si>
   <si>
-    <t>A. TCP/IP</t>
-  </si>
-  <si>
-    <t>B. UDP</t>
-  </si>
-  <si>
-    <t>C. FTP</t>
-  </si>
-  <si>
     <t>Which of the following is NOT an output device?</t>
   </si>
   <si>
-    <t>A. Plotter</t>
-  </si>
-  <si>
-    <t>B. Monitor</t>
-  </si>
-  <si>
-    <t>C. Projector</t>
-  </si>
-  <si>
-    <t>D. Scanner</t>
-  </si>
-  <si>
     <t>MS-Excel is a computer application program written by</t>
   </si>
   <si>
-    <t>A. IBM</t>
-  </si>
-  <si>
-    <t>B. Oracle</t>
-  </si>
-  <si>
-    <t>C. Zenith Inc.</t>
-  </si>
-  <si>
-    <t>D. Microsoft</t>
-  </si>
-  <si>
     <t>The e-mail program is also known as</t>
   </si>
   <si>
-    <t>A. Server</t>
-  </si>
-  <si>
-    <t>B. Client-server</t>
-  </si>
-  <si>
-    <t>C. E-mail client</t>
-  </si>
-  <si>
-    <t>D. Client</t>
-  </si>
-  <si>
-    <t>A. Management</t>
-  </si>
-  <si>
-    <t>B. Processing</t>
-  </si>
-  <si>
-    <t>C. Utility</t>
-  </si>
-  <si>
-    <t>D. Application</t>
-  </si>
-  <si>
     <t>Which of the following operation is mainly performed by RAM?</t>
   </si>
   <si>
-    <t>A. Read only</t>
-  </si>
-  <si>
-    <t>B. Read and write</t>
-  </si>
-  <si>
-    <t>C. Write only</t>
-  </si>
-  <si>
-    <t>D. Depends on the system</t>
-  </si>
-  <si>
     <t>Which shortcut is used to move to the previous worksheet?</t>
   </si>
   <si>
-    <t>A. Alt + PgUP</t>
-  </si>
-  <si>
-    <t>B. Ctrl + PgUp</t>
-  </si>
-  <si>
-    <t>C. Ctrl + PgDn</t>
-  </si>
-  <si>
-    <t>D. Shift + tab</t>
-  </si>
-  <si>
     <t>What is the full form of USB?</t>
   </si>
   <si>
-    <t>A. Universal Serial Bus</t>
-  </si>
-  <si>
-    <t>B. United States of America Business</t>
-  </si>
-  <si>
-    <t>C. User Serial Business</t>
-  </si>
-  <si>
-    <t>D. Universal Serial Battery</t>
-  </si>
-  <si>
     <t>Which component of a computer is responsible for storing data permanently?</t>
   </si>
   <si>
-    <t>A. RAM</t>
-  </si>
-  <si>
-    <t>B. CPU</t>
-  </si>
-  <si>
-    <t>C. Hard Disk</t>
-  </si>
-  <si>
-    <t>D. CD-ROM</t>
-  </si>
-  <si>
     <t>Which of the following is a type of software?</t>
   </si>
   <si>
-    <t>A. Mouse</t>
-  </si>
-  <si>
-    <t>B. Keyboard</t>
-  </si>
-  <si>
-    <t>C. Operating System</t>
-  </si>
-  <si>
-    <t>D. Monitor</t>
-  </si>
-  <si>
     <t>What is a browser?</t>
   </si>
   <si>
-    <t>A. A type of software</t>
-  </si>
-  <si>
-    <t>B. A type of hardware</t>
-  </si>
-  <si>
-    <t>C. A type of network</t>
-  </si>
-  <si>
-    <t>D. A type of modem</t>
-  </si>
-  <si>
     <t>Which of the following is a type of network?</t>
   </si>
   <si>
-    <t>A. LAN</t>
-  </si>
-  <si>
-    <t>C. USB</t>
-  </si>
-  <si>
-    <t>D. RAM</t>
-  </si>
-  <si>
     <t>Which of the following is a type of storage device?</t>
   </si>
   <si>
-    <t>C. CD-ROM</t>
-  </si>
-  <si>
-    <t>D. Printer</t>
-  </si>
-  <si>
     <t>What is the full form of PDF?</t>
   </si>
   <si>
-    <t>A. Portable Document Format</t>
-  </si>
-  <si>
-    <t>B. Portable Data Format</t>
-  </si>
-  <si>
-    <t>C. Personal Document Format</t>
-  </si>
-  <si>
-    <t>D. Personal Data Format</t>
-  </si>
-  <si>
     <t>Which of the following is a type of computer virus?</t>
   </si>
   <si>
-    <t>A. Trojan</t>
-  </si>
-  <si>
-    <t>C. Mouse</t>
-  </si>
-  <si>
     <t>What is the function of a firewall in a computer?</t>
   </si>
   <si>
-    <t>A. To block unauthorized access</t>
-  </si>
-  <si>
-    <t>B. To print documents</t>
-  </si>
-  <si>
-    <t>C. To store data</t>
-  </si>
-  <si>
-    <t>D. To play music</t>
-  </si>
-  <si>
     <t>What is the full form of LAN?</t>
   </si>
   <si>
-    <t>A. Local Area Network</t>
-  </si>
-  <si>
-    <t>B. Local Authorization Network</t>
-  </si>
-  <si>
-    <t>C. Logical Area Network</t>
-  </si>
-  <si>
-    <t>D. Logical Authorization Network</t>
-  </si>
-  <si>
     <t>Which of the following is not a web browser?</t>
   </si>
   <si>
-    <t>A. Google Chrome</t>
-  </si>
-  <si>
-    <t>B. Microsoft Word</t>
-  </si>
-  <si>
-    <t>C. Mozilla Firefox</t>
-  </si>
-  <si>
-    <t>D. Internet Explorer</t>
-  </si>
-  <si>
     <t>Which of the following is not a search engine?</t>
   </si>
   <si>
-    <t>A. Google</t>
-  </si>
-  <si>
-    <t>B. Yahoo</t>
-  </si>
-  <si>
-    <t>C. Bing</t>
-  </si>
-  <si>
-    <t>D. Windows</t>
-  </si>
-  <si>
     <t>What is the function of a mouse in a computer?</t>
   </si>
   <si>
-    <t>A. To input data</t>
-  </si>
-  <si>
-    <t>B. To output data</t>
-  </si>
-  <si>
-    <t>D. To navigate</t>
-  </si>
-  <si>
     <t>The Third Generation Computer was made with____.</t>
   </si>
   <si>
-    <t>A. Vacuum Tube</t>
-  </si>
-  <si>
-    <t>B. Discrete Components</t>
-  </si>
-  <si>
-    <t>C. Integrated circuits</t>
-  </si>
-  <si>
-    <t>D. Bio Chips</t>
-  </si>
-  <si>
     <t>What is a Firewall in Computer Network?</t>
   </si>
   <si>
-    <t>A. An operating System of Computer Network</t>
-  </si>
-  <si>
-    <t>B. The physical boundary of Network</t>
-  </si>
-  <si>
-    <t>C. A web browsing Software</t>
-  </si>
-  <si>
-    <t>D. A system designed to prevent unauthorized access</t>
-  </si>
-  <si>
     <t>The digital telecommunications term ISDN is an abbreviation for ______.</t>
   </si>
   <si>
-    <t>A. Integrated Standard Digital Networks</t>
-  </si>
-  <si>
-    <t>B. Internet Services Data Network</t>
-  </si>
-  <si>
-    <t>C. Interactive Standard Dynamic Networks</t>
-  </si>
-  <si>
-    <t>D. Integrated Services Digital Network</t>
-  </si>
-  <si>
     <t>________ is an important circuitry in a computer system that directs the operation of the processor.</t>
   </si>
   <si>
-    <t>A. Memory</t>
-  </si>
-  <si>
-    <t>B. Control Unit</t>
-  </si>
-  <si>
-    <t>C. Address Bus</t>
-  </si>
-  <si>
-    <t>D. Accumulator</t>
-  </si>
-  <si>
     <t>Switch is a network device whose responsibility is to_______.</t>
   </si>
   <si>
-    <t>A. Protect from virus attack</t>
-  </si>
-  <si>
-    <t>B. turn of the power to network</t>
-  </si>
-  <si>
-    <t>C. Connect Network devices</t>
-  </si>
-  <si>
-    <t>D. Boot the network</t>
-  </si>
-  <si>
     <t>A type of device used to connect a central processor and peripherals which uses multiplying is known as _____.</t>
   </si>
   <si>
-    <t>A. Modem</t>
-  </si>
-  <si>
-    <t>B. Network</t>
-  </si>
-  <si>
-    <t>C. Multiplexer</t>
-  </si>
-  <si>
-    <t>D. All of these</t>
-  </si>
-  <si>
     <t>Second-generation computers are made of ______.</t>
   </si>
   <si>
-    <t>A. Vacuum Tubes</t>
-  </si>
-  <si>
-    <t>B. Transistors</t>
-  </si>
-  <si>
-    <t>C. LSI</t>
-  </si>
-  <si>
-    <t>D. VLSI</t>
-  </si>
-  <si>
     <t>What was the first computer called?</t>
   </si>
   <si>
-    <t>A. UNIVAC</t>
-  </si>
-  <si>
-    <t>B. ENIAC</t>
-  </si>
-  <si>
-    <t>C. EDVAC</t>
-  </si>
-  <si>
-    <t>D. ABC</t>
-  </si>
-  <si>
     <t>Who invented the first computer mouse?</t>
   </si>
   <si>
-    <t>A. Steve Jobs</t>
-  </si>
-  <si>
-    <t>B. Douglas Engelbart</t>
-  </si>
-  <si>
-    <t>C. Bill Gates</t>
-  </si>
-  <si>
-    <t>D. Tim Berners-Lee</t>
-  </si>
-  <si>
     <t>Who is considered the father of modern computing?</t>
   </si>
   <si>
-    <t>B. Bill Gates</t>
-  </si>
-  <si>
-    <t>C. Alan Turing</t>
-  </si>
-  <si>
-    <t>D. Charles Babbage</t>
-  </si>
-  <si>
     <t>Which of the following is not a programming language?</t>
   </si>
   <si>
-    <t>A. Python</t>
-  </si>
-  <si>
-    <t>B. HTML</t>
-  </si>
-  <si>
-    <t>C. C++</t>
-  </si>
-  <si>
-    <t>D. Firefox</t>
-  </si>
-  <si>
-    <t>A. Trojan horse</t>
-  </si>
-  <si>
-    <t>B. Worm</t>
-  </si>
-  <si>
-    <t>C. Spyware</t>
-  </si>
-  <si>
-    <t>D. All of the above</t>
-  </si>
-  <si>
     <t>What is the function of an operating system?</t>
   </si>
   <si>
-    <t>A. To manage hardware resources</t>
-  </si>
-  <si>
-    <t>B. To provide a user interface</t>
-  </si>
-  <si>
-    <t>C. To run applications</t>
-  </si>
-  <si>
     <t>What is a LAN?</t>
   </si>
   <si>
-    <t>A. A network that covers a large geographic area</t>
-  </si>
-  <si>
-    <t>B. A network that connects devices within a building or group of buildings</t>
-  </si>
-  <si>
-    <t>C. A network that connects devices across multiple cities</t>
-  </si>
-  <si>
-    <t>D. A network that connects devices across the world</t>
-  </si>
-  <si>
     <t>QUESTIONS</t>
   </si>
   <si>
@@ -636,22 +174,469 @@
     <t>D</t>
   </si>
   <si>
-    <t>A. Smart Computing</t>
-  </si>
-  <si>
     <t>What is the shortcut key for the central alignment of a line or text in MS Office software?</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>D. www</t>
-  </si>
-  <si>
     <t>System software acts as a bridge between the hardware and software?</t>
   </si>
   <si>
     <t>The delivery of computing services such as data storage, servers and databases over the internet is known as:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Increase upload speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magnetic storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barcode reader</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smart Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ctrl+E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clients, servers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TCP/IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plotter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Read only</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alt + PgUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Universal Serial Bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A type of software</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Portable Document Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trojan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To block unauthorized access</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Local Area Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Google Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To input data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vacuum Tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An operating System of Computer Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integrated Standard Digital Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Protect from virus attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vacuum Tubes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UNIVAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steve Jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trojan horse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To manage hardware resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A network that covers a large geographic area</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Develop a website</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A circuit board that connects all the external and internal hardware.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Optical storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Touchpad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advance Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ctrl+A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Applications, complex softwares</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Client-server</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Read and write</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ctrl + PgUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States of America Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A type of hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Portable Data Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To print documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Local Authorization Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microsoft Word</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yahoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To output data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discrete Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The physical boundary of Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Internet Services Data Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Control Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> turn of the power to network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transistors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENIAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Douglas Engelbart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bill Gates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Worm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To provide a user interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A network that connects devices within a building or group of buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Used to deliver data on the World Wide Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It is a type of file server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cloud storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Output device</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cloud Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ctrl+G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System software, application software</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Projector</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zenith In</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E-mail client</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Write only</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ctrl + PgDn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User Serial Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hard Disk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Operating System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A type of network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD-ROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personal Document Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To store data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logical Area Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mozilla Firefox</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integrated circuits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A web browsing Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interactive Standard Dynamic Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Address Bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Connect Network devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multiplexer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EDVAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alan Turing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spyware</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To run applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A network that connects devices across multiple cities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Used to download images and data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scanner and other things are part of the motherboar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Used for Typing on Screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paper storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Input device</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seed Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ctrl+C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Servers, clients</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> www</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microsoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Depends on the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shift + tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Universal Serial Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A type of modem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Printer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personal Data Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To play music</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logical Authorization Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Internet Explorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To navigate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bio Chips</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A system designed to prevent unauthorized access</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Integrated Services Digital Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accumulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boot the network</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All of these</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VLSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tim Berners-Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charles Babbage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Firefox</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All of the above</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A network that connects devices across the world</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1009,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,22 +1024,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1062,819 +1047,819 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>176</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
         <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="E42" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
